--- a/biology/Zoologie/Atractus_balzani/Atractus_balzani.xlsx
+++ b/biology/Zoologie/Atractus_balzani/Atractus_balzani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus balzani est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus balzani est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste et explorateur Louis Balzan (1865-1893)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste et explorateur Louis Balzan (1865-1893).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1898 : A list of the reptiles and batrachians collected by the late Prof. L. Balzan in Bolivia. Annali del Museo Civico di Storia Naturale di Genova, ser. 2, vol. 19, no 19, p. 128-133 (texte intégral).</t>
         </is>
